--- a/chatbot dataset english.xlsx
+++ b/chatbot dataset english.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnujKumar\Documents\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F07032F-DF98-4EC1-86E7-D1911EA80E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92EC183-AEE8-4F1D-AC90-6F122D9635F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7AC85A7C-67CE-4F64-8D11-2BCA0BF4A035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$416</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="666">
   <si>
     <t>Great job!</t>
   </si>
@@ -1707,6 +1710,333 @@
   </si>
   <si>
     <t>I'm sorry to hear that. Can I help in any way?</t>
+  </si>
+  <si>
+    <t>Terrible job!</t>
+  </si>
+  <si>
+    <t>You are awful!</t>
+  </si>
+  <si>
+    <t>Terrible work!</t>
+  </si>
+  <si>
+    <t>You're a failure!</t>
+  </si>
+  <si>
+    <t>Poorly done!</t>
+  </si>
+  <si>
+    <t>Disastrous!</t>
+  </si>
+  <si>
+    <t>You're bombing it!</t>
+  </si>
+  <si>
+    <t>You missed it!</t>
+  </si>
+  <si>
+    <t>You're the worst!</t>
+  </si>
+  <si>
+    <t>Awful!</t>
+  </si>
+  <si>
+    <t>You're a dunce!</t>
+  </si>
+  <si>
+    <t>Horrible work!</t>
+  </si>
+  <si>
+    <t>You're unimpressive!</t>
+  </si>
+  <si>
+    <t>Flawed!</t>
+  </si>
+  <si>
+    <t>You're an amateur!</t>
+  </si>
+  <si>
+    <t>Mediocre work!</t>
+  </si>
+  <si>
+    <t>You're a nobody!</t>
+  </si>
+  <si>
+    <t>Unimpressive!</t>
+  </si>
+  <si>
+    <t>You're a disaster!</t>
+  </si>
+  <si>
+    <t>Unimpressive work!</t>
+  </si>
+  <si>
+    <t>You're a loser!</t>
+  </si>
+  <si>
+    <t>You made a mess!</t>
+  </si>
+  <si>
+    <t>You're a fake!</t>
+  </si>
+  <si>
+    <t>You're bombing it today!</t>
+  </si>
+  <si>
+    <t>You're not gifted!</t>
+  </si>
+  <si>
+    <t>You're making no effort!</t>
+  </si>
+  <si>
+    <t>You're a fraud!</t>
+  </si>
+  <si>
+    <t>You're not a pro!</t>
+  </si>
+  <si>
+    <t>You're average!</t>
+  </si>
+  <si>
+    <t>You're a disappointment!</t>
+  </si>
+  <si>
+    <t>You're not a master!</t>
+  </si>
+  <si>
+    <t>You did a terrible job!</t>
+  </si>
+  <si>
+    <t>You're not a true professional!</t>
+  </si>
+  <si>
+    <t>You're struggling!</t>
+  </si>
+  <si>
+    <t>You're not talented!</t>
+  </si>
+  <si>
+    <t>You're not making any progress!</t>
+  </si>
+  <si>
+    <t>You're a fool!</t>
+  </si>
+  <si>
+    <t>You're a liability!</t>
+  </si>
+  <si>
+    <t>You're an underachiever!</t>
+  </si>
+  <si>
+    <t>You're not creative!</t>
+  </si>
+  <si>
+    <t>You're not productive!</t>
+  </si>
+  <si>
+    <t>You're not a wizard!</t>
+  </si>
+  <si>
+    <t>You're not a genius!</t>
+  </si>
+  <si>
+    <t>You're a weak link!</t>
+  </si>
+  <si>
+    <t>You're a fading star!</t>
+  </si>
+  <si>
+    <t>You're a falling star!</t>
+  </si>
+  <si>
+    <t>You're a quitter!</t>
+  </si>
+  <si>
+    <t>You're a terrible team player!</t>
+  </si>
+  <si>
+    <t>You're a change blocker!</t>
+  </si>
+  <si>
+    <t>You're a follower!</t>
+  </si>
+  <si>
+    <t>You're a poor leader!</t>
+  </si>
+  <si>
+    <t>You're not innovative!</t>
+  </si>
+  <si>
+    <t>You're not inspiring!</t>
+  </si>
+  <si>
+    <t>You're a problem creator!</t>
+  </si>
+  <si>
+    <t>You're not a go-getter!</t>
+  </si>
+  <si>
+    <t>You're a weak collaborator!</t>
+  </si>
+  <si>
+    <t>You're not valuable to the team!</t>
+  </si>
+  <si>
+    <t>You're not a trailblazer!</t>
+  </si>
+  <si>
+    <t>I'm sorry to hear that.</t>
+  </si>
+  <si>
+    <t>I apologize for any inconvenience caused.</t>
+  </si>
+  <si>
+    <t>I understand your disappointment.</t>
+  </si>
+  <si>
+    <t>I'll do my best to improve.</t>
+  </si>
+  <si>
+    <t>Mistakes happen, and I'll learn from them.</t>
+  </si>
+  <si>
+    <t>I'll make sure to work on it.</t>
+  </si>
+  <si>
+    <t>I'm here to help, so please let me know how I can assist you.</t>
+  </si>
+  <si>
+    <t>I'll take your feedback into consideration.</t>
+  </si>
+  <si>
+    <t>I'll strive to do better next time.</t>
+  </si>
+  <si>
+    <t>I appreciate your feedback, and I'll make the necessary adjustments.</t>
+  </si>
+  <si>
+    <t>I understand your frustration.</t>
+  </si>
+  <si>
+    <t>I'll make sure to address this issue.</t>
+  </si>
+  <si>
+    <t>I apologize for the inconvenience caused.</t>
+  </si>
+  <si>
+    <t>I'll make sure to improve my performance.</t>
+  </si>
+  <si>
+    <t>I'll work on my skills to provide better results.</t>
+  </si>
+  <si>
+    <t>I'm sorry if I haven't met your expectations.</t>
+  </si>
+  <si>
+    <t>I'll take note of your feedback and make improvements.</t>
+  </si>
+  <si>
+    <t>I'll work on delivering better outcomes in the future.</t>
+  </si>
+  <si>
+    <t>I apologize for any dissatisfaction caused.</t>
+  </si>
+  <si>
+    <t>I'll take your comments into account and make necessary improvements.</t>
+  </si>
+  <si>
+    <t>I'll strive to exceed your expectations in the future.</t>
+  </si>
+  <si>
+    <t>I'm sorry for any inconvenience. Your feedback is valuable to me.</t>
+  </si>
+  <si>
+    <t>I understand that this is not what you expected.</t>
+  </si>
+  <si>
+    <t>I'll make sure to enhance my performance in the future.</t>
+  </si>
+  <si>
+    <t>I apologize for any negative experience you've had.</t>
+  </si>
+  <si>
+    <t>I'll do my best to rectify the situation.</t>
+  </si>
+  <si>
+    <t>I'm sorry if my responses have been inadequate.</t>
+  </si>
+  <si>
+    <t>I'll make sure to improve my understanding and provide more accurate answers.</t>
+  </si>
+  <si>
+    <t>I'm sorry if my performance hasn't met your standards.</t>
+  </si>
+  <si>
+    <t>I'll take your feedback on board and make necessary improvements.</t>
+  </si>
+  <si>
+    <t>I apologize for the letdown. I'll work on making it right.</t>
+  </si>
+  <si>
+    <t>I understand that my response may not have met your expectations.</t>
+  </si>
+  <si>
+    <t>I'll take your input into consideration and strive to improve.</t>
+  </si>
+  <si>
+    <t>I'm sorry if my answer wasn't satisfactory. I'll try to do better.</t>
+  </si>
+  <si>
+    <t>I apologize for any confusion caused. I'll make sure to clarify things.</t>
+  </si>
+  <si>
+    <t>I understand that you're not happy with my response. I'll work on it.</t>
+  </si>
+  <si>
+    <t>I'm sorry if I haven't been helpful. I'll make the necessary adjustments.</t>
+  </si>
+  <si>
+    <t>I apologize for any inconvenience caused. I'll make sure to improve.</t>
+  </si>
+  <si>
+    <t>I understand that my response wasn't up to par. I'll make it right.</t>
+  </si>
+  <si>
+    <t>I'm sorry for any frustration caused. I'll do my best to improve.</t>
+  </si>
+  <si>
+    <t>I apologize if my answers haven't been up to your standards. I'll work on it.</t>
+  </si>
+  <si>
+    <t>I'm sorry if I haven't met your expectations. I'll take your feedback on board.</t>
+  </si>
+  <si>
+    <t>I understand that my response may not have been what you were looking for. I'll strive to do better.</t>
+  </si>
+  <si>
+    <t>I apologize for any disappointment caused. I'll make sure to improve my performance.</t>
+  </si>
+  <si>
+    <t>I'm sorry if I haven't been able to assist you effectively. I'll make the necessary improvements.</t>
+  </si>
+  <si>
+    <t>I apologize for any inconvenience or dissatisfaction caused. I'll work on it.</t>
+  </si>
+  <si>
+    <t>I understand that my responses have fallen short. I'll make the necessary adjustments.</t>
+  </si>
+  <si>
+    <t>I'm sorry if I haven't been able to meet your needs. I'll strive to improve my performance.</t>
+  </si>
+  <si>
+    <t>I apologize for any shortcomings. I'll make sure to enhance my capabilities.</t>
+  </si>
+  <si>
+    <t>I understand that my answers haven't been satisfactory. I'll make the necessary improvements.</t>
+  </si>
+  <si>
+    <t>You're not worst</t>
   </si>
 </sst>
 </file>
@@ -2061,10 +2391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1B7098-825F-4444-AD91-4193B70EB4AB}">
-  <dimension ref="A1:C348"/>
+  <dimension ref="A1:C416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5902,7 +6232,756 @@
         <v>494</v>
       </c>
     </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>409</v>
+      </c>
+      <c r="B349" t="s">
+        <v>557</v>
+      </c>
+      <c r="C349" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>409</v>
+      </c>
+      <c r="B350" t="s">
+        <v>558</v>
+      </c>
+      <c r="C350" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>409</v>
+      </c>
+      <c r="B351" t="s">
+        <v>559</v>
+      </c>
+      <c r="C351" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>409</v>
+      </c>
+      <c r="B352" t="s">
+        <v>560</v>
+      </c>
+      <c r="C352" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>409</v>
+      </c>
+      <c r="B353" t="s">
+        <v>561</v>
+      </c>
+      <c r="C353" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>409</v>
+      </c>
+      <c r="B354" t="s">
+        <v>562</v>
+      </c>
+      <c r="C354" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>409</v>
+      </c>
+      <c r="B355" t="s">
+        <v>563</v>
+      </c>
+      <c r="C355" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>409</v>
+      </c>
+      <c r="B356" t="s">
+        <v>557</v>
+      </c>
+      <c r="C356" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>409</v>
+      </c>
+      <c r="B357" t="s">
+        <v>564</v>
+      </c>
+      <c r="C357" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>409</v>
+      </c>
+      <c r="B358" t="s">
+        <v>565</v>
+      </c>
+      <c r="C358" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>409</v>
+      </c>
+      <c r="B359" t="s">
+        <v>566</v>
+      </c>
+      <c r="C359" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>409</v>
+      </c>
+      <c r="B360" t="s">
+        <v>567</v>
+      </c>
+      <c r="C360" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>409</v>
+      </c>
+      <c r="B361" t="s">
+        <v>568</v>
+      </c>
+      <c r="C361" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>409</v>
+      </c>
+      <c r="B362" t="s">
+        <v>569</v>
+      </c>
+      <c r="C362" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>409</v>
+      </c>
+      <c r="B363" t="s">
+        <v>570</v>
+      </c>
+      <c r="C363" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>409</v>
+      </c>
+      <c r="B364" t="s">
+        <v>557</v>
+      </c>
+      <c r="C364" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>409</v>
+      </c>
+      <c r="B365" t="s">
+        <v>571</v>
+      </c>
+      <c r="C365" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>409</v>
+      </c>
+      <c r="B366" t="s">
+        <v>572</v>
+      </c>
+      <c r="C366" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>409</v>
+      </c>
+      <c r="B367" t="s">
+        <v>573</v>
+      </c>
+      <c r="C367" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>409</v>
+      </c>
+      <c r="B368" t="s">
+        <v>574</v>
+      </c>
+      <c r="C368" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>409</v>
+      </c>
+      <c r="B369" t="s">
+        <v>575</v>
+      </c>
+      <c r="C369" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>409</v>
+      </c>
+      <c r="B370" t="s">
+        <v>576</v>
+      </c>
+      <c r="C370" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>409</v>
+      </c>
+      <c r="B371" t="s">
+        <v>577</v>
+      </c>
+      <c r="C371" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>409</v>
+      </c>
+      <c r="B372" t="s">
+        <v>578</v>
+      </c>
+      <c r="C372" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>409</v>
+      </c>
+      <c r="B373" t="s">
+        <v>560</v>
+      </c>
+      <c r="C373" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>409</v>
+      </c>
+      <c r="B374" t="s">
+        <v>579</v>
+      </c>
+      <c r="C374" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>409</v>
+      </c>
+      <c r="B375" t="s">
+        <v>559</v>
+      </c>
+      <c r="C375" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>409</v>
+      </c>
+      <c r="B376" t="s">
+        <v>580</v>
+      </c>
+      <c r="C376" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>409</v>
+      </c>
+      <c r="B377" t="s">
+        <v>581</v>
+      </c>
+      <c r="C377" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>409</v>
+      </c>
+      <c r="B378" t="s">
+        <v>582</v>
+      </c>
+      <c r="C378" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>409</v>
+      </c>
+      <c r="B379" t="s">
+        <v>583</v>
+      </c>
+      <c r="C379" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>409</v>
+      </c>
+      <c r="B380" t="s">
+        <v>560</v>
+      </c>
+      <c r="C380" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>409</v>
+      </c>
+      <c r="B381" t="s">
+        <v>584</v>
+      </c>
+      <c r="C381" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>409</v>
+      </c>
+      <c r="B382" t="s">
+        <v>585</v>
+      </c>
+      <c r="C382" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>409</v>
+      </c>
+      <c r="B383" t="s">
+        <v>586</v>
+      </c>
+      <c r="C383" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>409</v>
+      </c>
+      <c r="B384" t="s">
+        <v>587</v>
+      </c>
+      <c r="C384" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>409</v>
+      </c>
+      <c r="B385" t="s">
+        <v>588</v>
+      </c>
+      <c r="C385" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>409</v>
+      </c>
+      <c r="B386" t="s">
+        <v>589</v>
+      </c>
+      <c r="C386" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>409</v>
+      </c>
+      <c r="B387" t="s">
+        <v>559</v>
+      </c>
+      <c r="C387" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>409</v>
+      </c>
+      <c r="B388" t="s">
+        <v>590</v>
+      </c>
+      <c r="C388" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>409</v>
+      </c>
+      <c r="B389" t="s">
+        <v>591</v>
+      </c>
+      <c r="C389" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>409</v>
+      </c>
+      <c r="B390" t="s">
+        <v>592</v>
+      </c>
+      <c r="C390" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>409</v>
+      </c>
+      <c r="B391" t="s">
+        <v>593</v>
+      </c>
+      <c r="C391" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>409</v>
+      </c>
+      <c r="B392" t="s">
+        <v>594</v>
+      </c>
+      <c r="C392" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>409</v>
+      </c>
+      <c r="B393" t="s">
+        <v>595</v>
+      </c>
+      <c r="C393" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>409</v>
+      </c>
+      <c r="B394" t="s">
+        <v>596</v>
+      </c>
+      <c r="C394" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>409</v>
+      </c>
+      <c r="B395" t="s">
+        <v>597</v>
+      </c>
+      <c r="C395" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>409</v>
+      </c>
+      <c r="B396" t="s">
+        <v>598</v>
+      </c>
+      <c r="C396" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>409</v>
+      </c>
+      <c r="B397" t="s">
+        <v>665</v>
+      </c>
+      <c r="C397" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>409</v>
+      </c>
+      <c r="B398" t="s">
+        <v>599</v>
+      </c>
+      <c r="C398" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>409</v>
+      </c>
+      <c r="B399" t="s">
+        <v>600</v>
+      </c>
+      <c r="C399" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>409</v>
+      </c>
+      <c r="B400" t="s">
+        <v>601</v>
+      </c>
+      <c r="C400" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>409</v>
+      </c>
+      <c r="B401" t="s">
+        <v>602</v>
+      </c>
+      <c r="C401" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>409</v>
+      </c>
+      <c r="B402" t="s">
+        <v>603</v>
+      </c>
+      <c r="C402" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>409</v>
+      </c>
+      <c r="B403" t="s">
+        <v>604</v>
+      </c>
+      <c r="C403" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>409</v>
+      </c>
+      <c r="B404" t="s">
+        <v>605</v>
+      </c>
+      <c r="C404" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>409</v>
+      </c>
+      <c r="B405" t="s">
+        <v>606</v>
+      </c>
+      <c r="C405" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>409</v>
+      </c>
+      <c r="B406" t="s">
+        <v>607</v>
+      </c>
+      <c r="C406" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>409</v>
+      </c>
+      <c r="B407" t="s">
+        <v>597</v>
+      </c>
+      <c r="C407" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>409</v>
+      </c>
+      <c r="B408" t="s">
+        <v>608</v>
+      </c>
+      <c r="C408" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" t="s">
+        <v>609</v>
+      </c>
+      <c r="C409" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>587</v>
+      </c>
+      <c r="C410" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>610</v>
+      </c>
+      <c r="C411" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>409</v>
+      </c>
+      <c r="B412" t="s">
+        <v>611</v>
+      </c>
+      <c r="C412" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>409</v>
+      </c>
+      <c r="B413" t="s">
+        <v>612</v>
+      </c>
+      <c r="C413" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>409</v>
+      </c>
+      <c r="B414" t="s">
+        <v>613</v>
+      </c>
+      <c r="C414" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>409</v>
+      </c>
+      <c r="B415" t="s">
+        <v>614</v>
+      </c>
+      <c r="C415" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>409</v>
+      </c>
+      <c r="B416" t="s">
+        <v>591</v>
+      </c>
+      <c r="C416" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C416" xr:uid="{CD1B7098-825F-4444-AD91-4193B70EB4AB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chatbot dataset english.xlsx
+++ b/chatbot dataset english.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnujKumar\Documents\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92EC183-AEE8-4F1D-AC90-6F122D9635F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B998A37C-0BB0-4B3C-888E-96BCB8E5767F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7AC85A7C-67CE-4F64-8D11-2BCA0BF4A035}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7AC85A7C-67CE-4F64-8D11-2BCA0BF4A035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$416</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="747">
   <si>
     <t>Great job!</t>
   </si>
@@ -2037,6 +2038,249 @@
   </si>
   <si>
     <t>You're not worst</t>
+  </si>
+  <si>
+    <t>What exactly is TAT?</t>
+  </si>
+  <si>
+    <t>Could you please explain what TAT means?</t>
+  </si>
+  <si>
+    <t>Can you provide a definition for TAT?</t>
+  </si>
+  <si>
+    <t>I'm not familiar with TAT, could you provide some information?</t>
+  </si>
+  <si>
+    <t>I'm curious about TAT, can you tell me more?</t>
+  </si>
+  <si>
+    <t>What does TAT refer to?</t>
+  </si>
+  <si>
+    <t>Can you give me some insights into what TAT is?</t>
+  </si>
+  <si>
+    <t>I'd like to know more about TAT.</t>
+  </si>
+  <si>
+    <t>Could you elaborate on what TAT entails?</t>
+  </si>
+  <si>
+    <t>Can you shed some light on TAT?</t>
+  </si>
+  <si>
+    <t>I'm interested in learning about TAT.</t>
+  </si>
+  <si>
+    <t>What is the significance of TAT?</t>
+  </si>
+  <si>
+    <t>Can you give me a brief overview of TAT?</t>
+  </si>
+  <si>
+    <t>I'm looking for information about TAT, can you help?</t>
+  </si>
+  <si>
+    <t>What can you tell me about TAT?</t>
+  </si>
+  <si>
+    <t>I'm curious to know the meaning of TAT.</t>
+  </si>
+  <si>
+    <t>Can you provide some context for TAT?</t>
+  </si>
+  <si>
+    <t>What purpose does TAT serve?</t>
+  </si>
+  <si>
+    <t>Please provide a description of TAT.</t>
+  </si>
+  <si>
+    <t>I'd appreciate it if you could explain TAT to me.</t>
+  </si>
+  <si>
+    <t>Could you give me a synopsis of TAT?</t>
+  </si>
+  <si>
+    <t>Can you offer some details about TAT?</t>
+  </si>
+  <si>
+    <t>I'd like to gain a better understanding of TAT.</t>
+  </si>
+  <si>
+    <t>What are the key aspects of TAT?</t>
+  </si>
+  <si>
+    <t>Could you break down the concept of TAT for me?</t>
+  </si>
+  <si>
+    <t>I'm seeking clarification on what TAT entails.</t>
+  </si>
+  <si>
+    <t>The Turnaround Time (TAT) is calculated as the duration between the Resolve Date and the Open Date, representing the time taken to address and resolve defects.</t>
+  </si>
+  <si>
+    <t>The Turnaround Time (TAT) measures the elapsed time from the moment a defect is opened until it is resolved.</t>
+  </si>
+  <si>
+    <t>TAT refers to the time it takes to fix and resolve defects, calculated as the difference between the Resolve Date and the Open Date.</t>
+  </si>
+  <si>
+    <t>The time required to resolve defects, known as Turnaround Time (TAT), is determined by subtracting the Open Date from the Resolve Date.</t>
+  </si>
+  <si>
+    <t>When we talk about Turnaround Time (TAT), we're referring to the timeframe it takes to address and resolve defects, calculated as the difference between the Resolve Date and the Open Date.</t>
+  </si>
+  <si>
+    <t>The duration it takes to fix defects, commonly referred to as Turnaround Time (TAT), is obtained by subtracting the Open Date from the Resolve Date.</t>
+  </si>
+  <si>
+    <t>Turnaround Time (TAT) is a metric used to quantify the time it takes to resolve defects, calculated as the difference between the Resolve Date and the Open Date.</t>
+  </si>
+  <si>
+    <t>The amount of time taken to resolve defects, known as Turnaround Time (TAT), is determined by subtracting the Open Date from the Resolve Date.</t>
+  </si>
+  <si>
+    <t>Turnaround Time (TAT) represents the time required to fix defects, calculated by subtracting the Open Date from the Resolve Date.</t>
+  </si>
+  <si>
+    <t>The duration between the Resolve Date and the Open Date is referred to as Turnaround Time (TAT), which signifies the time taken to resolve defects.</t>
+  </si>
+  <si>
+    <t>In the context of defect resolution, Turnaround Time (TAT) is the period it takes to address and fix issues, calculated as the difference between the Resolve Date and the Open Date.</t>
+  </si>
+  <si>
+    <t>The time taken to resolve defects, denoted as Turnaround Time (TAT), is calculated by subtracting the Open Date from the Resolve Date.</t>
+  </si>
+  <si>
+    <t>TAT, or Turnaround Time, quantifies the duration between the Resolve Date and the Open Date, indicating how long it took to resolve defects.</t>
+  </si>
+  <si>
+    <t>When we talk about Turnaround Time (TAT), we're referring to the timeframe it takes to address and fix defects, calculated as the difference between the Resolve Date and the Open Date.</t>
+  </si>
+  <si>
+    <t>Turnaround Time (TAT) measures the elapsed time from when a defect is opened until it is resolved, indicating how long it took to fix the issues.</t>
+  </si>
+  <si>
+    <t>The duration it takes to resolve defects, often referred to as Turnaround Time (TAT), is obtained by subtracting the Open Date from the Resolve Date.</t>
+  </si>
+  <si>
+    <t>Turnaround Time (TAT) represents the time taken to address and resolve defects, calculated as the difference between the Resolve Date and the Open Date.</t>
+  </si>
+  <si>
+    <t>TAT, or Turnaround Time, is a metric that captures the time it takes to resolve defects, calculated by subtracting the Open Date from the Resolve Date.</t>
+  </si>
+  <si>
+    <t>Turnaround Time (TAT) is the duration between the Resolve Date and the Open Date, indicating the time taken to resolve defects.</t>
+  </si>
+  <si>
+    <t>The time taken to fix and resolve defects, known as Turnaround Time (TAT), is calculated by subtracting the Open Date from the Resolve Date.</t>
+  </si>
+  <si>
+    <t>Turnaround Time (TAT) measures the efficiency of defect resolution by calculating the duration between the Resolve Date and the Open Date.</t>
+  </si>
+  <si>
+    <t>TAT, or Turnaround Time, is an important metric that helps gauge the speed and effectiveness of defect resolution, calculated as the difference between the Resolve Date and the Open Date.</t>
+  </si>
+  <si>
+    <t>The Turnaround Time (TAT) metric reflects the responsiveness of defect resolution, indicating the time it took to address and resolve issues.</t>
+  </si>
+  <si>
+    <t>When we refer to Turnaround Time (TAT), we're focusing on the timeframe it took to resolve defects, derived from the difference between the Resolve Date and the Open Date.</t>
+  </si>
+  <si>
+    <t>1. PLM Defects refer to the flaws or issues identified within a Product Lifecycle Management (PLM) system.</t>
+  </si>
+  <si>
+    <t>2. PLM Defects are defects or problems that occur within the context of Product Lifecycle Management (PLM), affecting the system's functionality or performance.</t>
+  </si>
+  <si>
+    <t>3. PLM Defects are the defects or anomalies found in the Product Lifecycle Management (PLM) process, which may impact the system's efficiency or accuracy.</t>
+  </si>
+  <si>
+    <t>4. When we talk about PLM Defects, we are referring to the issues or errors encountered within the Product Lifecycle Management (PLM) framework, affecting its overall operation.</t>
+  </si>
+  <si>
+    <t>5. PLM Defects pertain to the defects, bugs, or shortcomings discovered within a Product Lifecycle Management (PLM) system, potentially hindering its effectiveness or smooth functioning.</t>
+  </si>
+  <si>
+    <t>1. PLM Defects are deviations or discrepancies identified during the Product Lifecycle Management (PLM) process, indicating areas that require attention or improvement.</t>
+  </si>
+  <si>
+    <t>2. When discussing PLM Defects, we are referring to the instances where the Product Lifecycle Management (PLM) system fails to meet the expected standards or specifications.</t>
+  </si>
+  <si>
+    <t>3. PLM Defects encompass the issues, faults, or irregularities detected within the Product Lifecycle Management (PLM) framework, highlighting the need for corrective actions.</t>
+  </si>
+  <si>
+    <t>4. PLM Defects represent the non-conformances or non-compliances encountered within the Product Lifecycle Management (PLM) domain, necessitating thorough investigation and resolution.</t>
+  </si>
+  <si>
+    <t>5. The term PLM Defects refers to the shortcomings, flaws, or deficiencies observed in the Product Lifecycle Management (PLM) system, requiring remedial measures.</t>
+  </si>
+  <si>
+    <t>6. PLM Defects indicate the instances where the Product Lifecycle Management (PLM) system deviates from the desired state, requiring troubleshooting and rectification.</t>
+  </si>
+  <si>
+    <t>7. PLM Defects are the documented instances of deviations or malfunctions encountered within the Product Lifecycle Management (PLM) processes, aiming for continuous improvement.</t>
+  </si>
+  <si>
+    <t>8. When we talk about PLM Defects, we are referring to the anomalies or irregularities identified within the Product Lifecycle Management (PLM) system, demanding corrective actions.</t>
+  </si>
+  <si>
+    <t>9. PLM Defects signify the occurrences where the Product Lifecycle Management (PLM) system fails to adhere to the predefined quality standards, necessitating investigation and resolution.</t>
+  </si>
+  <si>
+    <t>10. PLM Defects encompass the recorded instances of non-conforming or erroneous behaviors within the Product Lifecycle Management (PLM) operations, requiring analysis and rectification.</t>
+  </si>
+  <si>
+    <t>11. When addressing PLM Defects, we are referring to the imperfections, errors, or glitches detected in the Product Lifecycle Management (PLM) framework, warranting attention and remediation.</t>
+  </si>
+  <si>
+    <t>12. PLM Defects represent the documented observations of discrepancies or deviations encountered within the Product Lifecycle Management (PLM) processes, aiming for process optimization.</t>
+  </si>
+  <si>
+    <t>13. PLM Defects highlight the areas where the Product Lifecycle Management (PLM) system falls short of meeting the defined quality criteria, necessitating corrective measures.</t>
+  </si>
+  <si>
+    <t>14. When discussing PLM Defects, we are referring to the instances of non-compliance, malfunctions, or suboptimal performance within the Product Lifecycle Management (PLM) domain.</t>
+  </si>
+  <si>
+    <t>15. PLM Defects encompass the identified issues, errors, or inconsistencies observed during the Product Lifecycle Management (PLM) activities, aiming for continuous quality enhancement.</t>
+  </si>
+  <si>
+    <t>1. Can you explain the concept of PLM defects?</t>
+  </si>
+  <si>
+    <t>2. Could you provide some insights into PLM defects?</t>
+  </si>
+  <si>
+    <t>3. How would you define PLM defects?</t>
+  </si>
+  <si>
+    <t>4. Can you elaborate on the notion of PLM defects?</t>
+  </si>
+  <si>
+    <t>5. What do we mean by PLM defects?</t>
+  </si>
+  <si>
+    <t>6. Can you shed some light on PLM defects?</t>
+  </si>
+  <si>
+    <t>7. What constitutes PLM defects?</t>
+  </si>
+  <si>
+    <t>8. Can you give me an overview of PLM defects?</t>
+  </si>
+  <si>
+    <t>9. In the context of PLM, what are defects?</t>
+  </si>
+  <si>
+    <t>11. How are PLM defects defined and categorized?</t>
+  </si>
+  <si>
+    <t>12. What is the significance of PLM defects?</t>
   </si>
 </sst>
 </file>
@@ -2393,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1B7098-825F-4444-AD91-4193B70EB4AB}">
   <dimension ref="A1:C416"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6985,4 +7229,376 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A068A-2E73-409A-ADC4-41B6D6497EBE}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>669</v>
+      </c>
+      <c r="C5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C10" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>676</v>
+      </c>
+      <c r="C12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>677</v>
+      </c>
+      <c r="C13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>679</v>
+      </c>
+      <c r="C15" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C16" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>681</v>
+      </c>
+      <c r="C17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>682</v>
+      </c>
+      <c r="C18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>683</v>
+      </c>
+      <c r="C19" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>684</v>
+      </c>
+      <c r="C20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>685</v>
+      </c>
+      <c r="C21" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>686</v>
+      </c>
+      <c r="C22" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>687</v>
+      </c>
+      <c r="C23" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>688</v>
+      </c>
+      <c r="C24" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>689</v>
+      </c>
+      <c r="C25" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>690</v>
+      </c>
+      <c r="C26" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>691</v>
+      </c>
+      <c r="C27" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>736</v>
+      </c>
+      <c r="C28" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>737</v>
+      </c>
+      <c r="C29" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>738</v>
+      </c>
+      <c r="C30" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>739</v>
+      </c>
+      <c r="C31" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>740</v>
+      </c>
+      <c r="C32" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C33" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>742</v>
+      </c>
+      <c r="C34" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>743</v>
+      </c>
+      <c r="C35" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>744</v>
+      </c>
+      <c r="C36" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>745</v>
+      </c>
+      <c r="C38" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>746</v>
+      </c>
+      <c r="C39" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>735</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>